--- a/biology/Médecine/François_Maillot_(médecin)/François_Maillot_(médecin).xlsx
+++ b/biology/Médecine/François_Maillot_(médecin)/François_Maillot_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Maillot_(m%C3%A9decin)</t>
+          <t>François_Maillot_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Clément Maillot, né à Briey le 18 février 1804 et mort à Paris le 24 juillet 1894, est un médecin militaire français, actif au XIXe siècle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Maillot_(m%C3%A9decin)</t>
+          <t>François_Maillot_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Clément Maillot naît à Briey, alors en Moselle, le 18 février 1804[1]. Il fait ses études secondaires au lycée Fabert à Metz. Il entre ensuite à l’hôpital militaire du Fort Moselle, pour devenir médecin militaire[1]. 
-Après le Val-de-Grâce, il est promu médecin major à Metz. En 1832, Maillot est envoyé en Algérie, où le paludisme décime les troupes. Dès 1834, il fait appliquer aux soldats de l’armée d’Afrique un nouveau traitement, à base de sulfate de quinine. Les résultats sont immédiats : la mortalité des patients hospitalisés tombe de 33 % à 5 %[2]. De retour en France, il est affecté à l’hôpital militaire d’instruction de Metz, en qualité de médecin ordinaire et de professeur[1]. Il enseigne ensuite à l’école d’application du Val-de-Grâce. Promu médecin principal de première classe en 1852, puis médecin inspecteur, il est nommé en 1856 membre du Conseil de santé, dont il devient président le 26 août 1864[1]. 
-François Clément Maillot meurt le 24 juillet 1894 à Paris[1]. Il repose au cimetière du Montparnasse (17e division).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Clément Maillot naît à Briey, alors en Moselle, le 18 février 1804. Il fait ses études secondaires au lycée Fabert à Metz. Il entre ensuite à l’hôpital militaire du Fort Moselle, pour devenir médecin militaire. 
+Après le Val-de-Grâce, il est promu médecin major à Metz. En 1832, Maillot est envoyé en Algérie, où le paludisme décime les troupes. Dès 1834, il fait appliquer aux soldats de l’armée d’Afrique un nouveau traitement, à base de sulfate de quinine. Les résultats sont immédiats : la mortalité des patients hospitalisés tombe de 33 % à 5 %. De retour en France, il est affecté à l’hôpital militaire d’instruction de Metz, en qualité de médecin ordinaire et de professeur. Il enseigne ensuite à l’école d’application du Val-de-Grâce. Promu médecin principal de première classe en 1852, puis médecin inspecteur, il est nommé en 1856 membre du Conseil de santé, dont il devient président le 26 août 1864. 
+François Clément Maillot meurt le 24 juillet 1894 à Paris. Il repose au cimetière du Montparnasse (17e division).
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Maillot_(m%C3%A9decin)</t>
+          <t>François_Maillot_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Hommages et postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La ville kabyle de M'Chedallah, dans la wilaya de Bouira, a porté autrefois le nom de Maillot.
 Son nom a été donné à différents hôpitaux :
